--- a/backend/output/lease_excel/XXXXXXX.xlsx
+++ b/backend/output/lease_excel/XXXXXXX.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -419,78 +419,10 @@
         <v>Date_de_fin</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>172 re Raimon de Trencavel Le Clos des Muses CS 40066 34075 MONTPELLIER CEDEX 3</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Laélé</v>
-      </c>
-      <c r="C2" t="str">
-        <v>EL, société immatriculée au RCS de Montpellier sous le numéro 535 302 525</v>
-      </c>
-      <c r="D2" t="str">
-        <v>01/10/2016</v>
-      </c>
-      <c r="E2" t="str">
-        <v>30/06/2025</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>172 re Raimon de Trencavel Le Clos des Muses CS 40066 34075 MONTPELLIER CEDEX 3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Laélé</v>
-      </c>
-      <c r="C3" t="str">
-        <v>EL, société immatriculée au RCS de Montpellier sous le numéro 535 302 525</v>
-      </c>
-      <c r="D3" t="str">
-        <v>01/10/2016</v>
-      </c>
-      <c r="E3" t="str">
-        <v>30/06/2025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>172 re Raimon de Trencavel Le Clos des Muses CS 40066 34075 MONTPELLIER CEDEX 3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Laélé</v>
-      </c>
-      <c r="C4" t="str">
-        <v>EL, société immatriculée au RCS de Montpellier sous le numéro 535 302 525</v>
-      </c>
-      <c r="D4" t="str">
-        <v>01/10/2016</v>
-      </c>
-      <c r="E4" t="str">
-        <v>30/06/2025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>172 re Raimon de Trencavel Le Clos des Muses CS 40066 34075 MONTPELLIER CEDEX 3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Laélé</v>
-      </c>
-      <c r="C5" t="str">
-        <v>EL, société immatriculée au RCS de Montpellier sous le numéro 535 302 525</v>
-      </c>
-      <c r="D5" t="str">
-        <v>01/10/2016</v>
-      </c>
-      <c r="E5" t="str">
-        <v>30/06/2025</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
   </ignoredErrors>
 </worksheet>
 </file>